--- a/Рабочая документация.xlsx
+++ b/Рабочая документация.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1Projects\Hobby\AVR\SliderDoorSensor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8299EFDE-3E85-4114-80C6-3B5962D63CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20940" windowHeight="10380"/>
+    <workbookView xWindow="1215" yWindow="840" windowWidth="24270" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>~90 см</t>
   </si>
@@ -31,19 +37,34 @@
     <t>Ширина секции</t>
   </si>
   <si>
-    <t>Ток</t>
-  </si>
-  <si>
     <t>170 мА</t>
   </si>
   <si>
     <t>3 * 17 = 51</t>
+  </si>
+  <si>
+    <t>Кол-во сегментов (5 см)</t>
+  </si>
+  <si>
+    <t>Ток на секцию</t>
+  </si>
+  <si>
+    <t>Общий ток</t>
+  </si>
+  <si>
+    <t>3 * 170 = 510 мА</t>
+  </si>
+  <si>
+    <t>Блок питания</t>
+  </si>
+  <si>
+    <t>&gt;= 1A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,6 +109,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -136,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,9 +193,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,6 +245,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -379,17 +437,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -410,31 +468,46 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -468,6 +541,9 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
